--- a/biology/Botanique/Hydrocharide_grenouillette/Hydrocharide_grenouillette.xlsx
+++ b/biology/Botanique/Hydrocharide_grenouillette/Hydrocharide_grenouillette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrocharis morsus-ranae
-La Morène (Hydrocharis morsus-ranae) encore appelée petit nénuphar, grenouillette, morène des grenouilles, Hydrocharide grenouillette[1] ou hydrocharis des grenouilles est une plante aquatique de la famille des Hydrocharitaceae. Originaire d'Europe, d'Afrique du Nord et d'Asie où elle est menacée et protégée par endroits, elle a été introduite en Amérique du Nord où, à l'inverse, elle est considérée comme une espèce envahissante.
+La Morène (Hydrocharis morsus-ranae) encore appelée petit nénuphar, grenouillette, morène des grenouilles, Hydrocharide grenouillette ou hydrocharis des grenouilles est une plante aquatique de la famille des Hydrocharitaceae. Originaire d'Europe, d'Afrique du Nord et d'Asie où elle est menacée et protégée par endroits, elle a été introduite en Amérique du Nord où, à l'inverse, elle est considérée comme une espèce envahissante.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante flottante stolonifère, aux feuilles cordiformes, aux fleurs femelles solitaires, aux fleurs mâles en petites inflorescences pédonculées (jusqu'à 4 fleurs).
 			Morène
@@ -546,7 +560,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Type d'inflorescence : cyme bipare
@@ -588,9 +604,11 @@
           <t>Protection dans son aire d'origine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est protégée en Algérie. Elle l'est également dans certaines régions françaises[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est protégée en Algérie. Elle l'est également dans certaines régions françaises.
 </t>
         </is>
       </c>
@@ -619,10 +637,12 @@
           <t>Espèce envahissante</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’hydrocharide grenouillette est une espèce exotique envahissante en Amérique du Nord, elle entre en compétition pour la lumière avec les autres plantes submergées. L'Hydrocharide grenouillette réduit le taux d’oxygène dans l’eau au détriment de la vie aquatique quand des grandes étendues de cette plante meurent et se décomposent[3].
-Les tapis denses de l’hydrocharide grenouillette peuvent boucher les canaux de drainage et les systèmes d’irrigation puis menacer les récoltes et perturber les activités récréatives comme la navigation de plaisance et la baignade[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’hydrocharide grenouillette est une espèce exotique envahissante en Amérique du Nord, elle entre en compétition pour la lumière avec les autres plantes submergées. L'Hydrocharide grenouillette réduit le taux d’oxygène dans l’eau au détriment de la vie aquatique quand des grandes étendues de cette plante meurent et se décomposent.
+Les tapis denses de l’hydrocharide grenouillette peuvent boucher les canaux de drainage et les systèmes d’irrigation puis menacer les récoltes et perturber les activités récréatives comme la navigation de plaisance et la baignade.
 </t>
         </is>
       </c>
